--- a/rules/rules start-end.xlsx
+++ b/rules/rules start-end.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Lab\Projects\EEG\EEG App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Lab\Projects\EEG\EEG App\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8874E2E-21D4-403D-B82B-EDAB8338FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B26F3-A9E3-4E7B-BC81-E5E14A9E5543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>protocol</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,63 +75,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>locN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEPhase2Node</t>
+  </si>
+  <si>
+    <t>第二阶段-位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active2</t>
+  </si>
+  <si>
+    <t>active2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEActiveNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start-end效应行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active1</t>
+  </si>
+  <si>
+    <t>第一阶段-阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SEPhase1Node</t>
   </si>
   <si>
+    <t>active1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SEPhase1Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一阶段-阈值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEPhase2Node</t>
-  </si>
-  <si>
-    <t>第二阶段-位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active1</t>
-  </si>
-  <si>
-    <t>active1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active2</t>
-  </si>
-  <si>
-    <t>active2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEActiveNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start-end效应行为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>9</v>
@@ -555,22 +555,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>4</v>
@@ -597,22 +597,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
@@ -638,22 +638,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4">
         <v>6</v>
@@ -679,22 +679,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4">
         <v>7</v>
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
         <v>8</v>
@@ -761,22 +761,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4">
         <v>9</v>
@@ -802,22 +802,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4">
         <v>10</v>
@@ -843,22 +843,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4">
         <v>11</v>
@@ -884,22 +884,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4">
         <v>12</v>
@@ -925,22 +925,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>13</v>
@@ -966,22 +966,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4">
         <v>14</v>
@@ -1007,22 +1007,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4">
         <v>15</v>
@@ -1048,22 +1048,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4">
         <v>16</v>
@@ -1089,22 +1089,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4">
         <v>17</v>
@@ -1130,22 +1130,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4">
         <v>18</v>
@@ -1171,22 +1171,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="4">
         <v>19</v>
@@ -1212,22 +1212,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4">
         <v>20</v>
@@ -1253,22 +1253,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>21</v>
@@ -1294,22 +1294,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4">
         <v>22</v>
@@ -1335,22 +1335,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4">
         <v>23</v>
@@ -1376,22 +1376,22 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="4">
         <v>24</v>
@@ -1417,22 +1417,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="4">
         <v>25</v>
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4">
         <v>26</v>
@@ -1499,22 +1499,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4">
         <v>27</v>
@@ -1540,22 +1540,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4">
         <v>28</v>
@@ -1564,10 +1564,10 @@
         <v>1000</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L26" s="4">
         <v>500</v>
@@ -1584,22 +1584,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H27" s="4">
         <v>4</v>
@@ -1608,10 +1608,10 @@
         <v>1000</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L27" s="4">
         <v>500</v>
@@ -1620,7 +1620,7 @@
         <v>3.5</v>
       </c>
       <c r="N27" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1628,22 +1628,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
@@ -1655,7 +1655,7 @@
         <v>2640</v>
       </c>
       <c r="K28" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L28" s="4">
         <v>500</v>
@@ -1669,22 +1669,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="4">
         <v>6</v>
@@ -1696,7 +1696,7 @@
         <v>5760</v>
       </c>
       <c r="K29" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L29" s="4">
         <v>500</v>
@@ -1711,22 +1711,22 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H30" s="4">
         <v>7</v>
@@ -1738,7 +1738,7 @@
         <v>8880</v>
       </c>
       <c r="K30" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L30" s="4">
         <v>500</v>
@@ -1752,22 +1752,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H31" s="4">
         <v>8</v>
@@ -1779,7 +1779,7 @@
         <v>12000</v>
       </c>
       <c r="K31" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L31" s="4">
         <v>500</v>
@@ -1793,22 +1793,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H32" s="4">
         <v>9</v>
@@ -1820,7 +1820,7 @@
         <v>15120</v>
       </c>
       <c r="K32" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L32" s="4">
         <v>500</v>
@@ -1835,22 +1835,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H33" s="4">
         <v>10</v>
@@ -1862,7 +1862,7 @@
         <v>18240</v>
       </c>
       <c r="K33" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L33" s="4">
         <v>500</v>
@@ -1876,22 +1876,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H34" s="4">
         <v>11</v>
@@ -1903,7 +1903,7 @@
         <v>21360</v>
       </c>
       <c r="K34" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L34" s="4">
         <v>500</v>
@@ -1917,22 +1917,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H35" s="4">
         <v>12</v>
@@ -1941,7 +1941,7 @@
         <v>1000</v>
       </c>
       <c r="J35" s="4">
-        <v>2640</v>
+        <v>12000</v>
       </c>
       <c r="K35" s="4">
         <v>36</v>
@@ -1953,94 +1953,6 @@
         <v>3.5</v>
       </c>
       <c r="N35" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="4">
-        <v>13</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="4">
-        <v>12000</v>
-      </c>
-      <c r="K36" s="4">
-        <v>36</v>
-      </c>
-      <c r="L36" s="4">
-        <v>500</v>
-      </c>
-      <c r="M36" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N36" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="4">
-        <v>14</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="4">
-        <v>21360</v>
-      </c>
-      <c r="K37" s="4">
-        <v>36</v>
-      </c>
-      <c r="L37" s="4">
-        <v>500</v>
-      </c>
-      <c r="M37" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N37" s="4">
         <v>10</v>
       </c>
     </row>

--- a/rules/rules start-end.xlsx
+++ b/rules/rules start-end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Lab\Projects\EEG\EEG App\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B26F3-A9E3-4E7B-BC81-E5E14A9E5543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4A0D47-E25D-4957-873D-C89AF7074C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,25 +484,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/rules/rules start-end.xlsx
+++ b/rules/rules start-end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Lab\Projects\EEG\EEG App\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAB\EEGApp\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4A0D47-E25D-4957-873D-C89AF7074C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD754D-96DE-464B-B101-C5A4E1BC1826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
   <si>
     <t>protocol</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>SEPhase1Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cueLag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,31 +486,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="S22" sqref="S21:S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -549,8 +553,11 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -591,8 +598,11 @@
         <v>3.5</v>
       </c>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -632,8 +642,11 @@
       <c r="M3" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -673,8 +686,11 @@
       <c r="M4" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -714,8 +730,11 @@
       <c r="M5" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -755,8 +774,11 @@
       <c r="M6" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -796,8 +818,11 @@
       <c r="M7" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -837,8 +862,11 @@
       <c r="M8" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -878,8 +906,11 @@
       <c r="M9" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -919,8 +950,11 @@
       <c r="M10" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -960,8 +994,11 @@
       <c r="M11" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1001,8 +1038,11 @@
       <c r="M12" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1042,8 +1082,11 @@
       <c r="M13" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1083,8 +1126,11 @@
       <c r="M14" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1124,8 +1170,11 @@
       <c r="M15" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1165,8 +1214,11 @@
       <c r="M16" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1206,8 +1258,11 @@
       <c r="M17" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1247,8 +1302,11 @@
       <c r="M18" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1288,8 +1346,11 @@
       <c r="M19" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1329,8 +1390,11 @@
       <c r="M20" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1370,8 +1434,11 @@
       <c r="M21" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1411,8 +1478,11 @@
       <c r="M22" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1452,8 +1522,11 @@
       <c r="M23" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1493,8 +1566,11 @@
       <c r="M24" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1534,8 +1610,11 @@
       <c r="M25" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1578,8 +1657,11 @@
       <c r="N26" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1622,8 +1704,11 @@
       <c r="N27" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1663,8 +1748,11 @@
       <c r="M28" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1705,8 +1793,11 @@
         <v>3.5</v>
       </c>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1746,8 +1837,11 @@
       <c r="M30" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1787,8 +1881,11 @@
       <c r="M31" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -1829,8 +1926,11 @@
         <v>3.5</v>
       </c>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -1870,8 +1970,11 @@
       <c r="M33" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -1911,8 +2014,11 @@
       <c r="M34" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -1954,6 +2060,9 @@
       </c>
       <c r="N35" s="4">
         <v>10</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
